--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha2.xlsx
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H2">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I2">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J2">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N2">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O2">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P2">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q2">
-        <v>3.90047352008</v>
+        <v>5.724571587049749</v>
       </c>
       <c r="R2">
-        <v>15.60189408032</v>
+        <v>22.898286348199</v>
       </c>
       <c r="S2">
-        <v>0.2935761210950349</v>
+        <v>0.4072250604934333</v>
       </c>
       <c r="T2">
-        <v>0.2303250330554398</v>
+        <v>0.4005399961622667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H3">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I3">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J3">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.025413</v>
       </c>
       <c r="O3">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P3">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q3">
-        <v>0.1536343274266667</v>
+        <v>0.1219437029221666</v>
       </c>
       <c r="R3">
-        <v>0.9218059645599999</v>
+        <v>0.7316622175329999</v>
       </c>
       <c r="S3">
-        <v>0.01156356264970624</v>
+        <v>0.008674628493005692</v>
       </c>
       <c r="T3">
-        <v>0.01360828295365718</v>
+        <v>0.01279833684260802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H4">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I4">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J4">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N4">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O4">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P4">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q4">
-        <v>0.2191300398</v>
+        <v>0.1209312648128333</v>
       </c>
       <c r="R4">
-        <v>1.3147802388</v>
+        <v>0.7255875888769999</v>
       </c>
       <c r="S4">
-        <v>0.01649321467475702</v>
+        <v>0.008602607353248821</v>
       </c>
       <c r="T4">
-        <v>0.01940961785814392</v>
+        <v>0.01269207859683528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H5">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I5">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J5">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N5">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O5">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P5">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q5">
-        <v>3.16354492278</v>
+        <v>4.17381599275375</v>
       </c>
       <c r="R5">
-        <v>12.65417969112</v>
+        <v>16.695263971015</v>
       </c>
       <c r="S5">
-        <v>0.2381098711626672</v>
+        <v>0.29690998606475</v>
       </c>
       <c r="T5">
-        <v>0.1868090079731467</v>
+        <v>0.2920358696363466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H6">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I6">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J6">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N6">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O6">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P6">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q6">
-        <v>3.698503931586667</v>
+        <v>0.05279206077416666</v>
       </c>
       <c r="R6">
-        <v>22.19102358952</v>
+        <v>0.316752364645</v>
       </c>
       <c r="S6">
-        <v>0.27837451850402</v>
+        <v>0.003755433889754621</v>
       </c>
       <c r="T6">
-        <v>0.3275979323713886</v>
+        <v>0.005540676231838457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H7">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I7">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J7">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N7">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O7">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P7">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q7">
-        <v>0.2669910658266667</v>
+        <v>0.04615377574449999</v>
       </c>
       <c r="R7">
-        <v>1.60194639496</v>
+        <v>0.2769226544669999</v>
       </c>
       <c r="S7">
-        <v>0.02009556046692871</v>
+        <v>0.003283210600785002</v>
       </c>
       <c r="T7">
-        <v>0.02364894636976262</v>
+        <v>0.004843969425082366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,19 +912,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H8">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I8">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J8">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N8">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O8">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P8">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q8">
-        <v>0.6444054416553332</v>
+        <v>2.1339832938545</v>
       </c>
       <c r="R8">
-        <v>3.866432649931999</v>
+        <v>8.535933175418</v>
       </c>
       <c r="S8">
-        <v>0.04850232901204912</v>
+        <v>0.1518037573148306</v>
       </c>
       <c r="T8">
-        <v>0.05707872539818925</v>
+        <v>0.149311725311366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,19 +974,19 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H9">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I9">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J9">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.025413</v>
       </c>
       <c r="O9">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P9">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q9">
-        <v>0.0253822506701111</v>
+        <v>0.04545769423433333</v>
       </c>
       <c r="R9">
-        <v>0.228440256031</v>
+        <v>0.272746165406</v>
       </c>
       <c r="S9">
-        <v>0.001910440529343789</v>
+        <v>0.003233693911059743</v>
       </c>
       <c r="T9">
-        <v>0.003372379613056189</v>
+        <v>0.004770913699993302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,19 +1036,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H10">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I10">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J10">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N10">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O10">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P10">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q10">
-        <v>0.03620293519499999</v>
+        <v>0.04508028153566666</v>
       </c>
       <c r="R10">
-        <v>0.325826416755</v>
+        <v>0.270481689214</v>
       </c>
       <c r="S10">
-        <v>0.002724878718465195</v>
+        <v>0.003206846153684639</v>
       </c>
       <c r="T10">
-        <v>0.004810055742148178</v>
+        <v>0.004731303168818137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H11">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I11">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J11">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N11">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O11">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P11">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q11">
-        <v>0.5226559166895</v>
+        <v>1.5558987191825</v>
       </c>
       <c r="R11">
-        <v>3.135935500137</v>
+        <v>6.22359487673</v>
       </c>
       <c r="S11">
-        <v>0.03933863309138066</v>
+        <v>0.1106809375000384</v>
       </c>
       <c r="T11">
-        <v>0.04629466422540714</v>
+        <v>0.1088639835372223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H12">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I12">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J12">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N12">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O12">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P12">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q12">
-        <v>0.6110376207474444</v>
+        <v>0.01967961689833334</v>
       </c>
       <c r="R12">
-        <v>5.499338586727</v>
+        <v>0.11807770139</v>
       </c>
       <c r="S12">
-        <v>0.04599084024508247</v>
+        <v>0.001399935883418928</v>
       </c>
       <c r="T12">
-        <v>0.08118471611524829</v>
+        <v>0.002065431506201761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H13">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I13">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J13">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N13">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O13">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P13">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q13">
-        <v>0.04411015606344443</v>
+        <v>0.017205023099</v>
       </c>
       <c r="R13">
-        <v>0.396991404571</v>
+        <v>0.103230138594</v>
       </c>
       <c r="S13">
-        <v>0.003320029850564669</v>
+        <v>0.001223902341990278</v>
       </c>
       <c r="T13">
-        <v>0.00586063832441206</v>
+        <v>0.001805715881421105</v>
       </c>
     </row>
   </sheetData>
